--- a/biology/Zoologie/Diabrotica_speciosa/Diabrotica_speciosa.xlsx
+++ b/biology/Zoologie/Diabrotica_speciosa/Diabrotica_speciosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diabrotica speciosa est une espèce d'insectes coléoptères de la famille des Chrysomelidae, originaire d'Amérique du Sud. C'est un insecte ravageur polyphage dont les larves attaquent les racines et les tubercules de nombreuses plantes cultivées, notamment de la famille de Cucurbitaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (20 janv. 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (20 janv. 2013) :
 sous-espèce Diabrotica speciosa speciosa</t>
         </is>
       </c>
